--- a/src/Лист Microsoft Excel.xlsx
+++ b/src/Лист Microsoft Excel.xlsx
@@ -218,11 +218,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="137459328"/>
-        <c:axId val="137458752"/>
+        <c:axId val="93230720"/>
+        <c:axId val="93231296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="137459328"/>
+        <c:axId val="93230720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -253,12 +253,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137458752"/>
+        <c:crossAx val="93231296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="137458752"/>
+        <c:axId val="93231296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -289,7 +289,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137459328"/>
+        <c:crossAx val="93230720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -633,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F17"/>
+  <dimension ref="C3:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -692,7 +692,7 @@
         <v>0.24999994120037963</v>
       </c>
       <c r="D6">
-        <f>E6/F6</f>
+        <f t="shared" ref="D6:D18" si="0">E6/F6</f>
         <v>4.0000009407941475</v>
       </c>
       <c r="E6">
@@ -704,7 +704,7 @@
     </row>
     <row r="7" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D7">
-        <f>E7/F7</f>
+        <f t="shared" si="0"/>
         <v>4.0000141606773436</v>
       </c>
       <c r="E7">
@@ -716,7 +716,7 @@
     </row>
     <row r="8" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D8">
-        <f>E8/F8</f>
+        <f t="shared" si="0"/>
         <v>4.0000011288734472</v>
       </c>
       <c r="E8">
@@ -728,7 +728,7 @@
     </row>
     <row r="9" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D9">
-        <f>E9/F9</f>
+        <f t="shared" si="0"/>
         <v>4.0000014686168814</v>
       </c>
       <c r="E9">
@@ -740,7 +740,7 @@
     </row>
     <row r="10" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D10">
-        <f>E10/F10</f>
+        <f t="shared" si="0"/>
         <v>4.0000008972959087</v>
       </c>
       <c r="E10">
@@ -752,7 +752,7 @@
     </row>
     <row r="11" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D11">
-        <f>E11/F11</f>
+        <f t="shared" si="0"/>
         <v>4.0000033328697224</v>
       </c>
       <c r="E11">
@@ -764,7 +764,7 @@
     </row>
     <row r="12" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D12">
-        <f>E12/F12</f>
+        <f t="shared" si="0"/>
         <v>4.0000132273279707</v>
       </c>
       <c r="E12">
@@ -776,7 +776,7 @@
     </row>
     <row r="13" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D13">
-        <f>E13/F13</f>
+        <f t="shared" si="0"/>
         <v>4.0000265345143795</v>
       </c>
       <c r="E13">
@@ -788,7 +788,7 @@
     </row>
     <row r="14" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D14">
-        <f>E14/F14</f>
+        <f t="shared" si="0"/>
         <v>4.0000024790037241</v>
       </c>
       <c r="E14">
@@ -800,7 +800,7 @@
     </row>
     <row r="15" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D15">
-        <f>E15/F15</f>
+        <f t="shared" si="0"/>
         <v>4.0000010199926495</v>
       </c>
       <c r="E15">
@@ -812,7 +812,7 @@
     </row>
     <row r="16" spans="3:6" x14ac:dyDescent="0.25">
       <c r="D16">
-        <f>E16/F16</f>
+        <f t="shared" si="0"/>
         <v>4.000002065940695</v>
       </c>
       <c r="E16">
@@ -824,7 +824,7 @@
     </row>
     <row r="17" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D17">
-        <f>E17/F17</f>
+        <f t="shared" si="0"/>
         <v>4.0044642857142856</v>
       </c>
       <c r="E17">
@@ -832,6 +832,18 @@
       </c>
       <c r="F17">
         <v>1568</v>
+      </c>
+    </row>
+    <row r="18" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>4.166666666666667</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="F18">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
